--- a/va_facility_data_2025-02-20/Clearlake VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Clearlake%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Clearlake VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Clearlake%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Reb6355766e8a4fec83ce403657fb3a9b"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1875ff2406664039be6678488d8a12a1"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R074c9a37ffed49599b8e701d3b90f442"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R1448baa579444147a4f4eb73f8e547f5"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1ec723dd3f5b4f73afa68cc6cf6097a5"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc46e342419d945d18f9ecd811671c121"/>
   </x:sheets>
 </x:workbook>
 </file>
